--- a/02_MasterWifoMannheim/99_Backup/Course163.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course163.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B923115972E075644FFE8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF35946-2CE3-4ACE-A122-30D3CCC0E4A7}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 591 Strategic Procurement</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>During the last decades, the value sourced from suppliers and innovation stemming from the supply base have increased substantially in many industries. Consequently, purchasing’s role has shifted from a clerical support role in the corporate hierarchy to a truly strategic and proactive role that drives growth, innovation, and value creation. Today, most organizations consider the management of their suppliers as a key strategic issue. contribute significantly to firm performance, the procurement function receives strong top management attention. This module provides a broad survey of modern procurement theory and practice from a strategic perspective. Topics include the design and implementation of procurement strategies, processes, organizational structures, and performance measurement systems, as well as the management of supplier portfolios, buyer-supplier relationships, and supplier innovation to meet firms’ strategic supply needs. The module consists of regular lectures and exercise classes in which extended and short cases will be discussed. insights.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>This course is recommended for anyone seeking an introduction to procurement and, more generally, a better understanding of upstream supply chain operations. The main intended learning outcome is to obtain the basic knowledge that enables further steps in procurement research and practice. Based on current theories and a broad coverage of topics, participants will learn how to analyze, structure, and tackle strategic problems surrounding the procurement function.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.; 90%), group presentation on company-based case study (10%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Christoph Bode</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 591 Strategic Procurement</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>During the last decades, the value sourced from suppliers and innovation stemming from the supply base have increased substantially in many industries. Consequently, purchasing’s role has shifted from a clerical support role in the corporate hierarchy to a truly strategic and proactive role that drives growth, innovation, and value creation. Today, most organizations consider the management of their suppliers as a key strategic issue. contribute significantly to firm performance, the procurement function receives strong top management attention. This module provides a broad survey of modern procurement theory and practice from a strategic perspective. Topics include the design and implementation of procurement strategies, processes, organizational structures, and performance measurement systems, as well as the management of supplier portfolios, buyer-supplier relationships, and supplier innovation to meet firms’ strategic supply needs. The module consists of regular lectures and exercise classes in which extended and short cases will be discussed. insights.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This course is recommended for anyone seeking an introduction to procurement and, more generally, a better understanding of upstream supply chain operations. The main intended learning outcome is to obtain the basic knowledge that enables further steps in procurement research and practice. Based on current theories and a broad coverage of topics, participants will learn how to analyze, structure, and tackle strategic problems surrounding the procurement function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.; 90%), group presentation on company-based case study (10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Christoph Bode</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
